--- a/cta策略/result/螺纹/ROC_1d/wfo绩效.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/wfo绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.1092979383733027</v>
+        <v>0.1636872844210777</v>
       </c>
       <c r="D2">
-        <v>-0.8483996582188476</v>
+        <v>0.4377483150009216</v>
       </c>
       <c r="E2">
-        <v>-0.2018574659380052</v>
+        <v>0.6097626599154818</v>
       </c>
       <c r="F2">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/ROC_1d/wfo绩效.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/wfo绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1636872844210777</v>
+        <v>-0.156244831240222</v>
       </c>
       <c r="D2">
-        <v>0.4377483150009216</v>
+        <v>-0.6567299706865461</v>
       </c>
       <c r="E2">
-        <v>0.6097626599154818</v>
+        <v>-0.2267011281823085</v>
       </c>
       <c r="F2">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/ROC_1d/wfo绩效.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/wfo绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.156244831240222</v>
+        <v>0.2818649172924654</v>
       </c>
       <c r="D2">
-        <v>-0.6567299706865461</v>
+        <v>0.9391259967820427</v>
       </c>
       <c r="E2">
-        <v>-0.2267011281823085</v>
+        <v>1.056773012578988</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
     </row>
   </sheetData>
